--- a/work_sync/2021工作汇总.xlsx
+++ b/work_sync/2021工作汇总.xlsx
@@ -703,8 +703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -772,7 +772,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="2" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" s="2" customFormat="1" ht="409.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>12</v>
       </c>
